--- a/data/naited.xlsx
+++ b/data/naited.xlsx
@@ -5,22 +5,54 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_opikud\met-stat-opik\peatykid\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_opikud\met-stat-opik\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A70DC3-F23D-48DA-B44A-C678BDDCFD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82588A16-F71D-4B1A-8815-6521FEE7BB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="linreg" sheetId="5" r:id="rId2"/>
-    <sheet name="prt_andmed" sheetId="3" r:id="rId3"/>
-    <sheet name="Leht1" sheetId="4" r:id="rId4"/>
+    <sheet name="N14" sheetId="10" r:id="rId2"/>
+    <sheet name="linreg" sheetId="5" r:id="rId3"/>
+    <sheet name="prt_andmed" sheetId="3" r:id="rId4"/>
+    <sheet name="MA" sheetId="4" r:id="rId5"/>
+    <sheet name="Leht1" sheetId="9" r:id="rId6"/>
+    <sheet name="PH_MA" sheetId="6" r:id="rId7"/>
+    <sheet name="vaetis_vorse" sheetId="7" r:id="rId8"/>
+    <sheet name="vaetis_kabi" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prt_andmed!$A$1:$F$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">prt_andmed!$A$1:$F$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$154</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">PH_MA!$G$1:$G$3</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">PH_MA!$C$17</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="26">
   <si>
     <t>PL</t>
   </si>
@@ -80,18 +112,68 @@
   <si>
     <t>OnMänd</t>
   </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>SHV</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>NPK</t>
+  </si>
+  <si>
+    <t>Kontroll</t>
+  </si>
+  <si>
+    <t>aasta</t>
+  </si>
+  <si>
+    <t>kogus</t>
+  </si>
+  <si>
+    <t>vaetis</t>
+  </si>
+  <si>
+    <t>KON</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -110,13 +192,203 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
@@ -132,6 +404,1119 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="et-EE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="et-EE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MA!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MA!$C$2:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE0D-4B9F-A7C5-B291C869E303}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1469584543"/>
+        <c:axId val="1469585023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1469584543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469585023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1469585023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="et-EE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469584543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="et-EE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE1DE22-2B01-94E6-08CE-020ED602549C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,7 +1802,7 @@
   <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="A1:C154"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,10 +3558,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B555D4E-67F2-43C8-8A84-8172BEA21E4B}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="B1" s="14">
+        <v>13.6</v>
+      </c>
+      <c r="C1" s="14">
+        <v>10.7</v>
+      </c>
+      <c r="D1" s="14">
+        <v>12.6</v>
+      </c>
+      <c r="E1" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="F1" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="G1" s="14">
+        <v>10.9</v>
+      </c>
+      <c r="H1" s="14">
+        <v>13</v>
+      </c>
+      <c r="I1" s="15">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="G2" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="I2" s="7">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10.8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="H3" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="I3" s="7">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>12.8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="H6" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="B7" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="F7" s="9">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D89051A-BEE6-40B6-AB68-BD4694B60290}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3338,7 +4936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B345B3-6DEA-4B55-A5E6-A11B8F62F4F9}">
   <dimension ref="A1:F149"/>
   <sheetViews>
@@ -6333,14 +7931,2392 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6984326-7485-4DA9-92F6-65132B30C9B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>120</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>170</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>180</v>
+      </c>
+      <c r="B19" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>190</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>200</v>
+      </c>
+      <c r="B21" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>210</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>220</v>
+      </c>
+      <c r="B23" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>230</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>240</v>
+      </c>
+      <c r="B25" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>250</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>260</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>270</v>
+      </c>
+      <c r="B28" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>280</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>290</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>300</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>310</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>320</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>329</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C34" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>340</v>
+      </c>
+      <c r="B35" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="C35" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="D35" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="E35" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A37210CF-6C7E-4CC6-81FB-9F6FA672B656}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C2" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G2" s="5">
+        <v>180</v>
+      </c>
+      <c r="H2" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="K2" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="G3" s="5">
+        <v>190</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="G4" s="5">
+        <v>200</v>
+      </c>
+      <c r="H4" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="G5" s="5">
+        <v>210</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="G6" s="5">
+        <v>220</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>60</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="5">
+        <v>230</v>
+      </c>
+      <c r="H7" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I7" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="G8" s="5">
+        <v>240</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="I8" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>80</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G9" s="5">
+        <v>250</v>
+      </c>
+      <c r="H9" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="G10" s="5">
+        <v>260</v>
+      </c>
+      <c r="H10" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G11" s="5">
+        <v>270</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="G12" s="5">
+        <v>280</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K12" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>120</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="5">
+        <v>290</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I13" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="G14" s="5">
+        <v>300</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="G15" s="5">
+        <v>310</v>
+      </c>
+      <c r="H15" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="I15" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>150</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="G16" s="5">
+        <v>320</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>6</v>
+      </c>
+      <c r="E17" s="6">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="G17" s="5">
+        <v>329</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="K17" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>170</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="G18" s="8">
+        <v>340</v>
+      </c>
+      <c r="H18" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="I18" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC4B385-D22F-4EBF-8970-F532DE254E6D}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>5.62</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>9.35</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>12.31</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>14.75</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>16.89</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>18.68</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>21.71</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>22.66</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>23.57</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>24.04</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>130</v>
+      </c>
+      <c r="B13">
+        <v>24.85</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>24.99</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>25.22</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AF1DB-1BBF-4ED6-9D35-4FD9EF1DE175}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>56</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>51</v>
+      </c>
+      <c r="C9">
+        <v>59</v>
+      </c>
+      <c r="D9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0207089-1645-4968-90BB-E903EF99C5EA}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>28.2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>28.6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>17.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>28.1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>30.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>89</v>
+      </c>
+      <c r="B8">
+        <v>25.1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>20.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>22.8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>20.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>23.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>24.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>23.6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>23.7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>89</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>26.9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>26.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>24.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>89</v>
+      </c>
+      <c r="B20">
+        <v>21.6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>23.9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>26.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>23.1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>24.3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>24.9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>25.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>22.2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <v>28.3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>89</v>
+      </c>
+      <c r="B32">
+        <v>29.2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>89</v>
+      </c>
+      <c r="B33">
+        <v>23.2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>89</v>
+      </c>
+      <c r="B34">
+        <v>26.4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>89</v>
+      </c>
+      <c r="B35">
+        <v>23.4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>89</v>
+      </c>
+      <c r="B36">
+        <v>22.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>92</v>
+      </c>
+      <c r="B37">
+        <v>25.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <v>22.2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>23.3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>92</v>
+      </c>
+      <c r="B41">
+        <v>23.8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>23.4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>89</v>
+      </c>
+      <c r="B44">
+        <v>26.1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>89</v>
+      </c>
+      <c r="B45">
+        <v>28.2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>89</v>
+      </c>
+      <c r="B46">
+        <v>29.8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>89</v>
+      </c>
+      <c r="B47">
+        <v>30.6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>89</v>
+      </c>
+      <c r="B49">
+        <v>20.2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>89</v>
+      </c>
+      <c r="B50">
+        <v>21.4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>24.4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>23.6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>92</v>
+      </c>
+      <c r="B53">
+        <v>21.7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>92</v>
+      </c>
+      <c r="B54">
+        <v>24.6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>24.8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>92</v>
+      </c>
+      <c r="B56">
+        <v>23.3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>92</v>
+      </c>
+      <c r="B57">
+        <v>21.9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>